--- a/prelim_data/pg.xlsx
+++ b/prelim_data/pg.xlsx
@@ -191,13 +191,13 @@
     <t>inductors-coils-chokes</t>
   </si>
   <si>
-    <t>Industrial Controls</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en/industrial-controls/34</t>
-  </si>
-  <si>
-    <t>industrial-controls</t>
+    <t>Industrial Automation and Controls</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en/industrial-automation-and-controls/34</t>
+  </si>
+  <si>
+    <t>industrial-automation-and-controls</t>
   </si>
   <si>
     <t>Integrated Circuits (ICs)</t>
